--- a/myLife.xlsx
+++ b/myLife.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G804"/>
+  <dimension ref="A1:G830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15238,6 +15238,483 @@
       <c r="D804" t="inlineStr">
         <is>
           <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>步行</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F805" t="inlineStr">
+        <is>
+          <t>6028</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>讨论</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>吃午餐</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>吃晚餐</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>喝水</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>编程</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>睡眠</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>思考</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>玩手机</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>洗漱</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>排泄</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>休养</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>自学</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F817" t="inlineStr">
+        <is>
+          <t>3229</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>网聊</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>欣赏</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>午睡</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>吃早餐</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>购物</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>阅读</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>拍摄</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>写作</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>实验</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>弹吉他</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>运动</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>看电视</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -15252,7 +15729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16703,6 +17180,96 @@
         <is>
           <t>84</t>
         </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>健康值</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>专注度</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>体验度</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>情绪值</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>知识增量</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>产出分</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -16716,7 +17283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18448,6 +19015,48 @@
       <c r="H41" t="inlineStr">
         <is>
           <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>星期一</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>肇庆</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>校园</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>多云</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -29572,8 +30181,10 @@
           <t>1200</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>489.8</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>489.8</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
